--- a/DATA/TraitDataFrame.xlsx
+++ b/DATA/TraitDataFrame.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73f8c170b5923d91/Bureaublad/INFC-functional-diversity/Collaboration/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{CE0D22ED-8C25-4E7F-97D0-86C6116920B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B56FA6F1-4D86-4603-85E8-F3809E1F28BE}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="8_{CE0D22ED-8C25-4E7F-97D0-86C6116920B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15DD97F1-599A-4FAB-A50B-2B6FD875306F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="14490" yWindow="3660" windowWidth="14310" windowHeight="11385" xr2:uid="{0BADCDCF-2DCA-4EDE-9EAC-A9D93B18F6A7}"/>
+    <workbookView xWindow="285" yWindow="2145" windowWidth="14310" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{0BADCDCF-2DCA-4EDE-9EAC-A9D93B18F6A7}"/>
   </bookViews>
   <sheets>
     <sheet name="VesselDiameter" sheetId="1" r:id="rId1"/>
-    <sheet name="VesselDensity" sheetId="2" r:id="rId2"/>
-    <sheet name="XylemVulnerability" sheetId="3" r:id="rId3"/>
-    <sheet name="Height" sheetId="5" r:id="rId4"/>
-    <sheet name="SLA" sheetId="6" r:id="rId5"/>
-    <sheet name="StemDensity" sheetId="7" r:id="rId6"/>
-    <sheet name="SeedMass" sheetId="8" r:id="rId7"/>
-    <sheet name="AllTraits" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
+    <sheet name="VesselDensity" sheetId="2" r:id="rId3"/>
+    <sheet name="XylemVulnerability" sheetId="3" r:id="rId4"/>
+    <sheet name="Height" sheetId="5" r:id="rId5"/>
+    <sheet name="SLA" sheetId="6" r:id="rId6"/>
+    <sheet name="StemDensity" sheetId="7" r:id="rId7"/>
+    <sheet name="SeedMass" sheetId="8" r:id="rId8"/>
+    <sheet name="AllTraits" sheetId="9" r:id="rId9"/>
+    <sheet name="5 traits + 1NA" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4265" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4918" uniqueCount="603">
   <si>
     <t>Species Code</t>
   </si>
@@ -1780,9 +1782,6 @@
     <t>Wubels JK. 2010. Tree species distribution in relation to stem hydraulic traits and soil moisture in a mixed hardwood forest in central Pennsylvania. MSc Thesis, The Pennsylvania State University, State College,  PA.  Available from: https://czo-archive.criticalzone.org/shale-hills/publications/pub/wubbles-2010-tree-species-distribution-in-relation-to-stem-hydraulic-traits/.</t>
   </si>
   <si>
-    <t>-2,6</t>
-  </si>
-  <si>
     <t>Petruzzellis F, Tomasella M, Miotto A, Natale S, Trifilò P, Nardini A. 2020. A Leaf Selfie: Using a Smartphone to Quantify Leaf
 Vulnerability to Hydraulic Dysfunction. Plants 9: doi:10.3390/plants9020234.</t>
   </si>
@@ -1855,6 +1854,9 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>-2.6</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90619B6-D053-4413-B384-EF7687A18E24}">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D138"/>
     </sheetView>
   </sheetViews>
@@ -4574,7 +4576,2586 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DDB01A-54B6-446E-BD37-762F379B1320}">
+  <dimension ref="A1:G113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="6">
+        <v>68</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="6">
+        <v>65</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>100</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>200</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>201</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>203</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>204</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>205</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>207</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>210</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>220</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>240</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>241</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>250</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>251</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>260</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>270</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>271</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>280</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>290</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>291</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>292</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>293</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>295</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>296</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>300</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>301</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>302</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>303</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>306</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>307</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>308</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>311</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>314</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>320</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>321</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>322</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>323</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>324</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>330</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>340</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>350</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>352</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>380</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>381</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>390</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>391</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>400</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>401</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>402</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>420</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>422</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>423</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>424</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>430</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>440</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>451</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>452</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>461</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>462</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>470</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>471</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>480</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>481</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>495</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>522</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>523</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>524</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>565</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>572</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>585</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>605</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>608</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>610</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>620</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>635</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>646</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>647</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>660</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>665</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>680</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>681</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>710</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>711</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>715</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>730</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>731</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>732</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>733</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>745</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>750</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>755</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>756</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C76BD6-1C57-45CE-BDBB-209913161BE5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6686AE39-8EA5-4AE6-A8A4-74E41087B785}">
   <dimension ref="A1:E140"/>
   <sheetViews>
@@ -6832,12 +9413,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769CBF63-79A8-4D60-A62B-CA3D563EED8B}">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7499,10 +10080,10 @@
         <v>132</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>578</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -7960,7 +10541,7 @@
         <v>196</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -7991,10 +10572,10 @@
         <v>132</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="E70" t="s">
         <v>580</v>
-      </c>
-      <c r="E70" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8070,10 +10651,10 @@
         <v>132</v>
       </c>
       <c r="D75" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="E75" t="s">
         <v>582</v>
-      </c>
-      <c r="E75" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -8466,10 +11047,10 @@
         <v>132</v>
       </c>
       <c r="D99" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="E99" t="s">
         <v>584</v>
-      </c>
-      <c r="E99" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -8500,10 +11081,10 @@
         <v>132</v>
       </c>
       <c r="D101" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="E101" t="s">
         <v>586</v>
-      </c>
-      <c r="E101" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -8562,10 +11143,10 @@
         <v>132</v>
       </c>
       <c r="D105" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="E105" s="13" t="s">
         <v>588</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -8582,7 +11163,7 @@
         <v>159</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -8667,7 +11248,7 @@
         <v>165</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -8791,7 +11372,7 @@
         <v>171</v>
       </c>
       <c r="E119" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -9107,7 +11688,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C140" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -9116,7 +11697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7F052F-6D17-4C12-A1F3-8A5574E7789A}">
   <dimension ref="A1:D140"/>
   <sheetViews>
@@ -11019,7 +13600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9973089E-9495-420E-A887-297C9DBBCF74}">
   <dimension ref="A1:D140"/>
   <sheetViews>
@@ -12905,7 +15486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8D8582-218C-4173-963A-476B6AB529E9}">
   <dimension ref="A1:G140"/>
   <sheetViews>
@@ -14818,7 +17399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFAC134-93A8-4D9B-B879-B6671B2C68BF}">
   <dimension ref="A1:D140"/>
   <sheetViews>
@@ -16734,12 +19315,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813A7B90-BA19-4A62-A054-1665FB26E5CE}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16762,19 +19343,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>597</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>130</v>
@@ -16806,10 +19387,10 @@
         <v>149</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -16832,13 +19413,13 @@
         <v>532</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -16864,10 +19445,10 @@
         <v>150</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -16887,16 +19468,16 @@
         <v>394</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>151</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -16916,16 +19497,16 @@
         <v>381</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>574</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -16951,7 +19532,7 @@
         <v>152</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>498</v>
@@ -16980,7 +19561,7 @@
         <v>153</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>498</v>
@@ -16994,7 +19575,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>545</v>
@@ -17003,16 +19584,16 @@
         <v>407</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -17023,25 +19604,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>404</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -17052,25 +19633,25 @@
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>387</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -17096,10 +19677,10 @@
         <v>154</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -17125,10 +19706,10 @@
         <v>155</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -17154,10 +19735,10 @@
         <v>156</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -17168,7 +19749,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>546</v>
@@ -17180,13 +19761,13 @@
         <v>533</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -17212,7 +19793,7 @@
         <v>158</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>499</v>
@@ -17241,10 +19822,10 @@
         <v>576</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -17264,16 +19845,16 @@
         <v>413</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>159</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -17284,25 +19865,25 @@
         <v>19</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -17328,10 +19909,10 @@
         <v>160</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -17342,7 +19923,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>454</v>
@@ -17351,16 +19932,16 @@
         <v>407</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>161</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -17380,16 +19961,16 @@
         <v>403</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>162</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -17415,10 +19996,10 @@
         <v>149</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -17429,7 +20010,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>451</v>
@@ -17438,16 +20019,16 @@
         <v>404</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>163</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -17473,10 +20054,10 @@
         <v>495</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -17502,10 +20083,10 @@
         <v>164</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -17574,25 +20155,25 @@
         <v>29</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -17734,10 +20315,10 @@
         <v>500</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -17795,7 +20376,7 @@
         <v>137</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -17818,13 +20399,13 @@
         <v>323</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>137</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -17853,7 +20434,7 @@
         <v>137</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -17882,7 +20463,7 @@
         <v>137</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -17905,13 +20486,13 @@
         <v>326</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>137</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -17940,7 +20521,7 @@
         <v>137</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -17969,7 +20550,7 @@
         <v>137</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -18114,7 +20695,7 @@
         <v>137</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -18195,7 +20776,7 @@
         <v>333</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>139</v>
@@ -18282,7 +20863,7 @@
         <v>336</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>139</v>
@@ -18386,25 +20967,25 @@
         <v>56</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -18418,22 +20999,22 @@
         <v>258</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>385</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -18572,7 +21153,7 @@
         <v>342</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>140</v>
@@ -18650,16 +21231,16 @@
         <v>476</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>385</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>140</v>
@@ -18723,7 +21304,7 @@
         <v>139</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -18752,7 +21333,7 @@
         <v>137</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -18763,25 +21344,25 @@
         <v>68</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>413</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>137</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -18810,7 +21391,7 @@
         <v>137</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -18827,13 +21408,13 @@
         <v>553</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>534</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>140</v>
@@ -18856,13 +21437,13 @@
         <v>553</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>534</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>140</v>
@@ -18897,7 +21478,7 @@
         <v>139</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -18920,13 +21501,13 @@
         <v>516</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -18955,7 +21536,7 @@
         <v>139</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -19033,7 +21614,7 @@
         <v>403</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>193</v>
@@ -19042,7 +21623,7 @@
         <v>140</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -19088,19 +21669,19 @@
         <v>457</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>517</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>137</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -19111,7 +21692,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>399</v>
@@ -19120,16 +21701,16 @@
         <v>409</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -19155,10 +21736,10 @@
         <v>195</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -19169,25 +21750,25 @@
         <v>81</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -19201,7 +21782,7 @@
         <v>549</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>403</v>
@@ -19294,7 +21875,7 @@
         <v>411</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>170</v>
@@ -19323,10 +21904,10 @@
         <v>394</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>137</v>
@@ -19361,7 +21942,7 @@
         <v>139</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -19448,7 +22029,7 @@
         <v>137</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -19477,7 +22058,7 @@
         <v>137</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -19564,7 +22145,7 @@
         <v>139</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -19593,7 +22174,7 @@
         <v>139</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -19616,13 +22197,13 @@
         <v>361</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H99" s="11" t="s">
         <v>137</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -19648,10 +22229,10 @@
         <v>206</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -19674,10 +22255,10 @@
         <v>363</v>
       </c>
       <c r="G101" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="H101" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="H101" s="11" t="s">
-        <v>599</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>501</v>
@@ -19703,13 +22284,13 @@
         <v>364</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -19755,13 +22336,13 @@
         <v>557</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>521</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H104" s="11" t="s">
         <v>140</v>
@@ -19778,7 +22359,7 @@
         <v>100</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>448</v>
@@ -19790,7 +22371,7 @@
         <v>522</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H105" s="11" t="s">
         <v>137</v>
@@ -19816,7 +22397,7 @@
         <v>384</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G106" s="6" t="s">
         <v>159</v>
@@ -19865,13 +22446,13 @@
         <v>103</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>558</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F108" s="11" t="s">
         <v>524</v>
@@ -19941,7 +22522,7 @@
         <v>137</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -19958,7 +22539,7 @@
         <v>472</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F111" s="11" t="s">
         <v>330</v>
@@ -19970,7 +22551,7 @@
         <v>139</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -19984,7 +22565,7 @@
         <v>476</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>412</v>
@@ -20016,19 +22597,19 @@
         <v>249</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>536</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H113" s="11" t="s">
         <v>137</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -20039,19 +22620,19 @@
         <v>109</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>386</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H114" s="11" t="s">
         <v>137</v>
@@ -20080,7 +22661,7 @@
         <v>365</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H115" s="11" t="s">
         <v>140</v>
@@ -20161,19 +22742,19 @@
         <v>451</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>529</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H118" s="11" t="s">
         <v>137</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -20213,7 +22794,7 @@
         <v>115</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>561</v>
@@ -20222,7 +22803,7 @@
         <v>400</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>214</v>
@@ -20231,7 +22812,7 @@
         <v>139</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -20390,16 +22971,16 @@
         <v>477</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>537</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H126" s="11" t="s">
         <v>140</v>
@@ -20550,7 +23131,7 @@
         <v>140</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -20608,7 +23189,7 @@
         <v>140</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -20637,7 +23218,7 @@
         <v>140</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -20648,7 +23229,7 @@
         <v>126</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>550</v>
@@ -20657,16 +23238,16 @@
         <v>381</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -20677,25 +23258,25 @@
         <v>127</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G136" s="6" t="s">
         <v>223</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -20712,13 +23293,13 @@
         <v>417</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F137" s="11" t="s">
         <v>530</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H137" s="11" t="s">
         <v>137</v>
@@ -20735,25 +23316,25 @@
         <v>129</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>454</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H138" s="11" t="s">
         <v>140</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/TraitDataFrame.xlsx
+++ b/DATA/TraitDataFrame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roell\OneDrive\Bureaublad\INFC-functional-diversity\Collaboration\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\angelo\Google Drive UNIBAS\Lammerant_et_al\INFC-functional-diversity\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA60D60B-6E7F-4C72-B234-B8F7686ED940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AC9190-90F6-4754-8370-412EC22B6A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{0BADCDCF-2DCA-4EDE-9EAC-A9D93B18F6A7}"/>
+    <workbookView xWindow="960" yWindow="1995" windowWidth="23340" windowHeight="13755" firstSheet="4" activeTab="8" xr2:uid="{0BADCDCF-2DCA-4EDE-9EAC-A9D93B18F6A7}"/>
   </bookViews>
   <sheets>
     <sheet name="VesselDiameter" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4266" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="622">
   <si>
     <t>Species Code</t>
   </si>
@@ -1537,9 +1537,6 @@
     <t>0-100</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>-2.6</t>
   </si>
   <si>
@@ -1877,6 +1874,48 @@
   </si>
   <si>
     <t>Kattge J, Knorr W, Raddatz T, Wirth C. 2009. Quantifying photosynthetic capacity and its relatioship to leaf nitrogen content for global-scale terrestrial biosphere models. Global Change Biology 15:976-991.</t>
+  </si>
+  <si>
+    <t>Species me</t>
+  </si>
+  <si>
+    <t>Pinus excelsa (p. wallichia)</t>
+  </si>
+  <si>
+    <t>Pinus pister</t>
+  </si>
+  <si>
+    <t>Pinus uncita</t>
+  </si>
+  <si>
+    <t>Chamaecyparis lawsonia</t>
+  </si>
+  <si>
+    <t>Prunus seroti</t>
+  </si>
+  <si>
+    <t>Quercus troja</t>
+  </si>
+  <si>
+    <t>Quercus creta</t>
+  </si>
+  <si>
+    <t>Sorbus tormilis</t>
+  </si>
+  <si>
+    <t>Alnus inca</t>
+  </si>
+  <si>
+    <t>Populus xcadensis</t>
+  </si>
+  <si>
+    <t>Viburnum lanta</t>
+  </si>
+  <si>
+    <t>Paliurus spi-christi</t>
+  </si>
+  <si>
+    <t>Rubia peregri</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +2017,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1994,7 +2033,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7534,7 +7573,7 @@
         <v>132</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>473</v>
@@ -9188,7 +9227,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D2" t="s">
         <v>270</v>
@@ -9372,7 +9411,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D16" t="s">
         <v>270</v>
@@ -9503,7 +9542,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D26" t="s">
         <v>270</v>
@@ -9531,7 +9570,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D28" t="s">
         <v>270</v>
@@ -9556,7 +9595,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D30" t="s">
         <v>270</v>
@@ -9598,7 +9637,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D33" t="s">
         <v>270</v>
@@ -9640,7 +9679,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D36" t="s">
         <v>270</v>
@@ -9654,7 +9693,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D37" t="s">
         <v>270</v>
@@ -9668,7 +9707,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D38" t="s">
         <v>270</v>
@@ -9738,7 +9777,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D43" t="s">
         <v>270</v>
@@ -9766,7 +9805,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D45" t="s">
         <v>270</v>
@@ -9780,7 +9819,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D46" t="s">
         <v>270</v>
@@ -9864,7 +9903,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D52" t="s">
         <v>270</v>
@@ -9906,7 +9945,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D55" t="s">
         <v>270</v>
@@ -9959,7 +9998,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D59" t="s">
         <v>270</v>
@@ -9973,7 +10012,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D60" t="s">
         <v>270</v>
@@ -9987,7 +10026,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D61" t="s">
         <v>270</v>
@@ -10001,7 +10040,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D62" t="s">
         <v>270</v>
@@ -10029,7 +10068,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D64" t="s">
         <v>270</v>
@@ -10043,7 +10082,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D65" t="s">
         <v>270</v>
@@ -10071,7 +10110,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D67" t="s">
         <v>270</v>
@@ -10099,7 +10138,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D69" t="s">
         <v>270</v>
@@ -10194,7 +10233,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D76" t="s">
         <v>270</v>
@@ -10208,7 +10247,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D77" t="s">
         <v>270</v>
@@ -10222,7 +10261,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D78" t="s">
         <v>270</v>
@@ -10286,7 +10325,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D83" t="s">
         <v>270</v>
@@ -10325,7 +10364,7 @@
         <v>83</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D86" t="s">
         <v>270</v>
@@ -10339,7 +10378,7 @@
         <v>84</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D87" t="s">
         <v>270</v>
@@ -10395,7 +10434,7 @@
         <v>88</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D91" t="s">
         <v>270</v>
@@ -10409,7 +10448,7 @@
         <v>89</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D92" t="s">
         <v>270</v>
@@ -10423,7 +10462,7 @@
         <v>90</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D93" t="s">
         <v>270</v>
@@ -10437,7 +10476,7 @@
         <v>91</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D94" t="s">
         <v>270</v>
@@ -10521,7 +10560,7 @@
         <v>95</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D100" t="s">
         <v>270</v>
@@ -10535,7 +10574,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D101" t="s">
         <v>270</v>
@@ -10750,7 +10789,7 @@
         <v>112</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D117" t="s">
         <v>270</v>
@@ -10764,7 +10803,7 @@
         <v>113</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D118" t="s">
         <v>270</v>
@@ -11088,7 +11127,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D2" t="s">
         <v>270</v>
@@ -11105,7 +11144,7 @@
         <v>430</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11152,7 +11191,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D7" t="s">
         <v>270</v>
@@ -11166,7 +11205,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D8" t="s">
         <v>270</v>
@@ -11213,7 +11252,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D12" t="s">
         <v>270</v>
@@ -11227,7 +11266,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D13" t="s">
         <v>270</v>
@@ -11255,10 +11294,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
+        <v>606</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>607</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -11269,7 +11308,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D16" t="s">
         <v>270</v>
@@ -11426,7 +11465,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D28" t="s">
         <v>270</v>
@@ -11451,7 +11490,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D30" t="s">
         <v>270</v>
@@ -11521,7 +11560,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D35" t="s">
         <v>270</v>
@@ -11535,7 +11574,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D36" t="s">
         <v>270</v>
@@ -11549,7 +11588,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D37" t="s">
         <v>270</v>
@@ -11605,7 +11644,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D41" t="s">
         <v>270</v>
@@ -11619,7 +11658,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D42" t="s">
         <v>270</v>
@@ -11633,7 +11672,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D43" t="s">
         <v>270</v>
@@ -11647,7 +11686,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D44" t="s">
         <v>270</v>
@@ -11661,7 +11700,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D45" t="s">
         <v>270</v>
@@ -11703,7 +11742,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D48" t="s">
         <v>270</v>
@@ -11731,7 +11770,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D50" t="s">
         <v>270</v>
@@ -11759,7 +11798,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D52" t="s">
         <v>270</v>
@@ -11801,7 +11840,7 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D55" t="s">
         <v>270</v>
@@ -11815,7 +11854,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D56" t="s">
         <v>270</v>
@@ -11851,7 +11890,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D59" t="s">
         <v>270</v>
@@ -11865,7 +11904,7 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D60" t="s">
         <v>270</v>
@@ -11879,7 +11918,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D61" t="s">
         <v>270</v>
@@ -11893,7 +11932,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D62" t="s">
         <v>270</v>
@@ -11907,7 +11946,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D63" t="s">
         <v>270</v>
@@ -11921,7 +11960,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D64" t="s">
         <v>270</v>
@@ -11935,7 +11974,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D65" t="s">
         <v>270</v>
@@ -11960,7 +11999,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D67" t="s">
         <v>270</v>
@@ -11974,7 +12013,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D68" t="s">
         <v>270</v>
@@ -11988,7 +12027,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D69" t="s">
         <v>270</v>
@@ -12013,7 +12052,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D71" t="s">
         <v>270</v>
@@ -12055,7 +12094,7 @@
         <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D74" t="s">
         <v>270</v>
@@ -12083,7 +12122,7 @@
         <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D76" t="s">
         <v>270</v>
@@ -12111,7 +12150,7 @@
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D78" t="s">
         <v>270</v>
@@ -12136,7 +12175,7 @@
         <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D80" t="s">
         <v>270</v>
@@ -12175,7 +12214,7 @@
         <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D83" t="s">
         <v>270</v>
@@ -12200,10 +12239,10 @@
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -12214,7 +12253,7 @@
         <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D86" t="s">
         <v>270</v>
@@ -12228,7 +12267,7 @@
         <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D87" t="s">
         <v>270</v>
@@ -12278,7 +12317,7 @@
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D91" t="s">
         <v>270</v>
@@ -12334,7 +12373,7 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D95" t="s">
         <v>270</v>
@@ -12348,7 +12387,7 @@
         <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D96" t="s">
         <v>270</v>
@@ -12362,7 +12401,7 @@
         <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D97" t="s">
         <v>270</v>
@@ -12376,7 +12415,7 @@
         <v>93</v>
       </c>
       <c r="C98" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D98" t="s">
         <v>270</v>
@@ -12404,7 +12443,7 @@
         <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D100" t="s">
         <v>270</v>
@@ -12418,7 +12457,7 @@
         <v>96</v>
       </c>
       <c r="C101" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D101" t="s">
         <v>270</v>
@@ -12432,7 +12471,7 @@
         <v>97</v>
       </c>
       <c r="C102" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D102" t="s">
         <v>270</v>
@@ -12584,10 +12623,10 @@
         <v>108</v>
       </c>
       <c r="C113" t="s">
+        <v>602</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>603</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -12623,7 +12662,7 @@
         <v>111</v>
       </c>
       <c r="C116" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D116" t="s">
         <v>270</v>
@@ -12637,7 +12676,7 @@
         <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D117" t="s">
         <v>270</v>
@@ -12704,7 +12743,7 @@
         <v>117</v>
       </c>
       <c r="C122" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D122" t="s">
         <v>270</v>
@@ -12718,7 +12757,7 @@
         <v>118</v>
       </c>
       <c r="C123" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D123" t="s">
         <v>270</v>
@@ -12732,7 +12771,7 @@
         <v>118</v>
       </c>
       <c r="C124" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D124" t="s">
         <v>270</v>
@@ -12746,7 +12785,7 @@
         <v>119</v>
       </c>
       <c r="C125" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D125" t="s">
         <v>270</v>
@@ -12763,7 +12802,7 @@
         <v>432</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -12774,7 +12813,7 @@
         <v>121</v>
       </c>
       <c r="C127" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D127" t="s">
         <v>270</v>
@@ -12788,7 +12827,7 @@
         <v>121</v>
       </c>
       <c r="C128" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D128" t="s">
         <v>270</v>
@@ -12830,7 +12869,7 @@
         <v>123</v>
       </c>
       <c r="C131" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D131" t="s">
         <v>270</v>
@@ -12844,7 +12883,7 @@
         <v>124</v>
       </c>
       <c r="C132" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D132" t="s">
         <v>270</v>
@@ -12858,7 +12897,7 @@
         <v>125</v>
       </c>
       <c r="C133" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D133" t="s">
         <v>270</v>
@@ -12872,7 +12911,7 @@
         <v>125</v>
       </c>
       <c r="C134" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D134" t="s">
         <v>270</v>
@@ -13044,7 +13083,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D7" t="s">
         <v>270</v>
@@ -13404,7 +13443,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D33" t="s">
         <v>270</v>
@@ -13712,7 +13751,7 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D55" t="s">
         <v>270</v>
@@ -13905,7 +13944,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D69" t="s">
         <v>270</v>
@@ -14257,7 +14296,7 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D95" t="s">
         <v>270</v>
@@ -14271,7 +14310,7 @@
         <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D96" t="s">
         <v>270</v>
@@ -14341,7 +14380,7 @@
         <v>96</v>
       </c>
       <c r="C101" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D101" t="s">
         <v>270</v>
@@ -14887,7 +14926,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D2" t="s">
         <v>270</v>
@@ -15267,7 +15306,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D30" t="s">
         <v>270</v>
@@ -15309,7 +15348,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D33" t="s">
         <v>270</v>
@@ -15491,7 +15530,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D46" t="s">
         <v>270</v>
@@ -15575,7 +15614,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D52" t="s">
         <v>270</v>
@@ -15617,7 +15656,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D55" t="s">
         <v>270</v>
@@ -15695,7 +15734,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D61" t="s">
         <v>270</v>
@@ -15737,7 +15776,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D64" t="s">
         <v>270</v>
@@ -15751,7 +15790,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D65" t="s">
         <v>270</v>
@@ -15776,7 +15815,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D67" t="s">
         <v>270</v>
@@ -16131,7 +16170,7 @@
         <v>90</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D93" t="s">
         <v>270</v>
@@ -16145,7 +16184,7 @@
         <v>91</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D94" t="s">
         <v>270</v>
@@ -16187,7 +16226,7 @@
         <v>93</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D97" t="s">
         <v>270</v>
@@ -16201,7 +16240,7 @@
         <v>93</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D98" t="s">
         <v>270</v>
@@ -16215,7 +16254,7 @@
         <v>94</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D99" t="s">
         <v>270</v>
@@ -16573,7 +16612,7 @@
         <v>119</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D125" t="s">
         <v>270</v>
@@ -16770,7 +16809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813A7B90-BA19-4A62-A054-1665FB26E5CE}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
       <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
@@ -16791,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>608</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>487</v>
@@ -16823,16 +16862,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>294</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>149</v>
@@ -16840,9 +16879,7 @@
       <c r="H2" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -16863,15 +16900,9 @@
       <c r="F3" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -16898,9 +16929,7 @@
       <c r="H4" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -16918,18 +16947,14 @@
       <c r="E5" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
         <v>151</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -16947,18 +16972,12 @@
       <c r="E6" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -16974,10 +16993,10 @@
         <v>330</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>152</v>
@@ -17006,7 +17025,7 @@
         <v>296</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>153</v>
@@ -17023,29 +17042,19 @@
         <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>496</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
         <v>440</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -17054,27 +17063,15 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -17083,34 +17080,22 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>610</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>228</v>
@@ -17122,24 +17107,20 @@
         <v>297</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>611</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>229</v>
@@ -17151,7 +17132,7 @@
         <v>294</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>155</v>
@@ -17159,9 +17140,7 @@
       <c r="H13" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -17188,9 +17167,7 @@
       <c r="H14" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -17199,9 +17176,7 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
         <v>441</v>
       </c>
@@ -17209,17 +17184,11 @@
         <v>317</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>496</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -17229,7 +17198,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>333</v>
@@ -17238,7 +17207,7 @@
         <v>297</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>158</v>
@@ -17272,12 +17241,8 @@
       <c r="G17" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -17304,9 +17269,7 @@
       <c r="H18" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -17315,27 +17278,13 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -17362,9 +17311,7 @@
       <c r="H20" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -17373,34 +17320,26 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
         <v>357</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>612</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>252</v>
@@ -17411,18 +17350,14 @@
       <c r="E22" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="6" t="s">
         <v>162</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -17449,9 +17384,7 @@
       <c r="H23" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -17460,27 +17393,19 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -17507,9 +17432,7 @@
       <c r="H25" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -17519,7 +17442,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>366</v>
@@ -17536,9 +17459,7 @@
       <c r="H26" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -17577,7 +17498,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>335</v>
@@ -17586,7 +17507,7 @@
         <v>298</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>166</v>
@@ -17605,27 +17526,13 @@
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -17635,16 +17542,16 @@
         <v>30</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>296</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>167</v>
@@ -17722,13 +17629,13 @@
         <v>33</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>276</v>
@@ -17765,12 +17672,8 @@
       <c r="G34" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -17789,7 +17692,7 @@
         <v>316</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>170</v>
@@ -17809,7 +17712,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>338</v>
@@ -17818,7 +17721,7 @@
         <v>316</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>157</v>
@@ -17838,7 +17741,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>339</v>
@@ -17847,11 +17750,9 @@
         <v>299</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>496</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="11" t="s">
         <v>137</v>
       </c>
@@ -17867,7 +17768,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>340</v>
@@ -17937,7 +17838,7 @@
         <v>279</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>137</v>
@@ -17963,7 +17864,7 @@
         <v>308</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>173</v>
@@ -17971,9 +17872,7 @@
       <c r="H41" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -17992,7 +17891,7 @@
         <v>308</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>173</v>
@@ -18000,9 +17899,7 @@
       <c r="H42" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -18012,7 +17909,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>343</v>
@@ -18021,7 +17918,7 @@
         <v>295</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>174</v>
@@ -18050,7 +17947,7 @@
         <v>309</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>176</v>
@@ -18070,7 +17967,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>345</v>
@@ -18079,7 +17976,7 @@
         <v>310</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>177</v>
@@ -18099,10 +17996,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>272</v>
@@ -18125,7 +18022,7 @@
         <v>293</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>613</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>334</v>
@@ -18166,7 +18063,7 @@
         <v>312</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>179</v>
@@ -18224,11 +18121,9 @@
         <v>302</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>496</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="G50" s="6"/>
       <c r="H50" s="11" t="s">
         <v>139</v>
       </c>
@@ -18273,16 +18168,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>299</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>182</v>
@@ -18299,7 +18194,7 @@
         <v>303</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>614</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>244</v>
@@ -18313,9 +18208,7 @@
       <c r="F53" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="G53" s="6"/>
       <c r="H53" s="11" t="s">
         <v>139</v>
       </c>
@@ -18360,16 +18253,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>391</v>
@@ -18398,7 +18291,7 @@
         <v>301</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>184</v>
@@ -18417,56 +18310,32 @@
       <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>310</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>615</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="D58" s="6"/>
       <c r="E58" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -18476,7 +18345,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>351</v>
@@ -18485,7 +18354,7 @@
         <v>302</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>185</v>
@@ -18505,7 +18374,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>351</v>
@@ -18514,7 +18383,7 @@
         <v>302</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>185</v>
@@ -18531,19 +18400,19 @@
         <v>320</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>60</v>
+        <v>616</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>301</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>186</v>
@@ -18563,7 +18432,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>448</v>
@@ -18572,7 +18441,7 @@
         <v>299</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>187</v>
@@ -18601,11 +18470,9 @@
         <v>315</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>496</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="G63" s="6"/>
       <c r="H63" s="11" t="s">
         <v>140</v>
       </c>
@@ -18621,16 +18488,16 @@
         <v>63</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>327</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>188</v>
@@ -18650,16 +18517,16 @@
         <v>63</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>327</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>188</v>
@@ -18681,18 +18548,12 @@
       <c r="C66" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="D66" s="6"/>
       <c r="E66" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
       <c r="H66" s="11" t="s">
         <v>140</v>
       </c>
@@ -18708,16 +18569,16 @@
         <v>65</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>305</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>189</v>
@@ -18746,7 +18607,7 @@
         <v>295</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>196</v>
@@ -18766,16 +18627,16 @@
         <v>67</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>448</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>182</v>
@@ -18794,18 +18655,12 @@
       <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F70" s="6"/>
       <c r="G70" s="6" t="s">
         <v>474</v>
       </c>
@@ -18833,7 +18688,7 @@
         <v>298</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>190</v>
@@ -18858,15 +18713,11 @@
       <c r="D72" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="E72" s="6"/>
       <c r="F72" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="G72" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="G72" s="6"/>
       <c r="H72" s="11" t="s">
         <v>140</v>
       </c>
@@ -18887,15 +18738,11 @@
       <c r="D73" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="E73" s="6"/>
       <c r="F73" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="G73" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="G73" s="6"/>
       <c r="H73" s="11" t="s">
         <v>140</v>
       </c>
@@ -18920,7 +18767,7 @@
         <v>310</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>191</v>
@@ -18954,12 +18801,8 @@
       <c r="G75" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -18969,7 +18812,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>357</v>
@@ -18978,7 +18821,7 @@
         <v>308</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>464</v>
@@ -18998,7 +18841,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>245</v>
@@ -19024,10 +18867,10 @@
         <v>400</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>75</v>
+        <v>617</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>358</v>
@@ -19036,7 +18879,7 @@
         <v>295</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>192</v>
@@ -19064,18 +18907,14 @@
       <c r="E79" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="F79" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F79" s="6"/>
       <c r="G79" s="6" t="s">
         <v>193</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="I79" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -19094,7 +18933,7 @@
         <v>321</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>194</v>
@@ -19113,27 +18952,19 @@
       <c r="B81" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C81" s="6"/>
       <c r="D81" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="E81" s="6"/>
       <c r="F81" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="G81" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="G81" s="6"/>
       <c r="H81" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I81" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -19142,27 +18973,17 @@
       <c r="B82" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C82" s="6"/>
       <c r="D82" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="F82" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -19172,7 +18993,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>361</v>
@@ -19181,17 +19002,13 @@
         <v>297</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H83" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -19200,46 +19017,30 @@
       <c r="B84" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>422</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>82</v>
+        <v>618</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="D85" s="6"/>
       <c r="E85" s="11" t="s">
         <v>317</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>196</v>
@@ -19259,7 +19060,7 @@
         <v>83</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>362</v>
@@ -19268,7 +19069,7 @@
         <v>318</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>197</v>
@@ -19288,7 +19089,7 @@
         <v>84</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>252</v>
@@ -19297,7 +19098,7 @@
         <v>319</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>198</v>
@@ -19325,9 +19126,7 @@
       <c r="E88" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="F88" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F88" s="6"/>
       <c r="G88" s="6" t="s">
         <v>170</v>
       </c>
@@ -19354,12 +19153,8 @@
       <c r="E89" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="F89" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
       <c r="H89" s="11" t="s">
         <v>137</v>
       </c>
@@ -19404,7 +19199,7 @@
         <v>88</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>361</v>
@@ -19413,7 +19208,7 @@
         <v>320</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>200</v>
@@ -19433,7 +19228,7 @@
         <v>89</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>361</v>
@@ -19462,10 +19257,10 @@
         <v>90</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>311</v>
@@ -19491,10 +19286,10 @@
         <v>91</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>319</v>
@@ -19526,10 +19321,10 @@
         <v>366</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>204</v>
@@ -19555,10 +19350,10 @@
         <v>366</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>204</v>
@@ -19581,13 +19376,13 @@
         <v>254</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>295</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>205</v>
@@ -19610,13 +19405,13 @@
         <v>254</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>295</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>205</v>
@@ -19639,7 +19434,7 @@
         <v>255</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>300</v>
@@ -19665,7 +19460,7 @@
         <v>95</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>334</v>
@@ -19674,7 +19469,7 @@
         <v>308</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>206</v>
@@ -19682,9 +19477,7 @@
       <c r="H100" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="I100" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
@@ -19694,16 +19487,16 @@
         <v>96</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>352</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G101" s="15" t="s">
         <v>492</v>
@@ -19732,17 +19525,11 @@
         <v>323</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>496</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
@@ -19786,15 +19573,11 @@
       <c r="D104" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="E104" s="6"/>
       <c r="F104" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="G104" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="G104" s="6"/>
       <c r="H104" s="11" t="s">
         <v>140</v>
       </c>
@@ -19809,9 +19592,7 @@
       <c r="B105" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C105" s="6"/>
       <c r="D105" s="6" t="s">
         <v>353</v>
       </c>
@@ -19847,9 +19628,7 @@
       <c r="E106" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="F106" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F106" s="6"/>
       <c r="G106" s="6" t="s">
         <v>159</v>
       </c>
@@ -19865,7 +19644,7 @@
         <v>605</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>102</v>
+        <v>619</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>240</v>
@@ -19896,15 +19675,11 @@
       <c r="B108" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="E108" s="6"/>
       <c r="F108" s="11" t="s">
         <v>422</v>
       </c>
@@ -19981,7 +19756,7 @@
         <v>620</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>106</v>
+        <v>620</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>374</v>
@@ -19989,9 +19764,7 @@
       <c r="D111" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="E111" s="6"/>
       <c r="F111" s="11" t="s">
         <v>280</v>
       </c>
@@ -20015,9 +19788,7 @@
       <c r="C112" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="D112" s="6"/>
       <c r="E112" s="11" t="s">
         <v>325</v>
       </c>
@@ -20047,15 +19818,11 @@
       <c r="D113" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E113" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="E113" s="6"/>
       <c r="F113" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>496</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="G113" s="6"/>
       <c r="H113" s="11" t="s">
         <v>137</v>
       </c>
@@ -20070,21 +19837,13 @@
       <c r="B114" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
       <c r="E114" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="F114" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
       <c r="H114" s="11" t="s">
         <v>137</v>
       </c>
@@ -20111,9 +19870,7 @@
       <c r="F115" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="G115" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="G115" s="6"/>
       <c r="H115" s="11" t="s">
         <v>140</v>
       </c>
@@ -20138,7 +19895,7 @@
         <v>310</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>213</v>
@@ -20158,7 +19915,7 @@
         <v>112</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>363</v>
@@ -20167,7 +19924,7 @@
         <v>322</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>165</v>
@@ -20187,20 +19944,16 @@
         <v>113</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="E118" s="6"/>
       <c r="F118" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="G118" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="G118" s="6"/>
       <c r="H118" s="11" t="s">
         <v>137</v>
       </c>
@@ -20244,18 +19997,14 @@
       <c r="B120" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C120" s="6"/>
       <c r="D120" s="6" t="s">
         <v>456</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="F120" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F120" s="6"/>
       <c r="G120" s="6" t="s">
         <v>214</v>
       </c>
@@ -20312,7 +20061,7 @@
         <v>325</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>216</v>
@@ -20341,7 +20090,7 @@
         <v>305</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>217</v>
@@ -20370,7 +20119,7 @@
         <v>305</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>217</v>
@@ -20393,13 +20142,13 @@
         <v>263</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>306</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>218</v>
@@ -20421,18 +20170,12 @@
       <c r="C126" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D126" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
       <c r="F126" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="G126" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="G126" s="6"/>
       <c r="H126" s="11" t="s">
         <v>140</v>
       </c>
@@ -20457,7 +20200,7 @@
         <v>308</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>219</v>
@@ -20486,7 +20229,7 @@
         <v>308</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>219</v>
@@ -20573,7 +20316,7 @@
         <v>298</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G131" s="6" t="s">
         <v>221</v>
@@ -20602,7 +20345,7 @@
         <v>303</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>200</v>
@@ -20631,7 +20374,7 @@
         <v>328</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G133" s="6" t="s">
         <v>222</v>
@@ -20660,7 +20403,7 @@
         <v>328</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G134" s="6" t="s">
         <v>222</v>
@@ -20679,27 +20422,19 @@
       <c r="B135" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C135" s="6"/>
       <c r="D135" s="6" t="s">
         <v>445</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F135" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
       <c r="H135" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="I135" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
@@ -20708,34 +20443,22 @@
       <c r="B136" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
       <c r="G136" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="H136" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>774</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>128</v>
+        <v>621</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>359</v>
@@ -20743,15 +20466,11 @@
       <c r="D137" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E137" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="E137" s="6"/>
       <c r="F137" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="G137" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="G137" s="6"/>
       <c r="H137" s="11" t="s">
         <v>137</v>
       </c>
@@ -20766,21 +20485,13 @@
       <c r="B138" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="C138" s="6"/>
       <c r="D138" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
       <c r="H138" s="11" t="s">
         <v>140</v>
       </c>
